--- a/go-api/book1.xlsx
+++ b/go-api/book1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +56,12 @@
     <t>Test User 3</t>
   </si>
   <si>
+    <t>20240819014414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 49x500; Test Product 3: 80x1200; Test Product 4: 8x1200; </t>
+  </si>
+  <si>
     <t>Mpesa Receipt Number</t>
   </si>
   <si>
@@ -80,6 +86,15 @@
     <t>Product Quantity</t>
   </si>
   <si>
+    <t>Test Product 1</t>
+  </si>
+  <si>
+    <t>Test Product 3</t>
+  </si>
+  <si>
+    <t>Test Product 4</t>
+  </si>
+  <si>
     <t>20240818113344</t>
   </si>
   <si>
@@ -92,13 +107,76 @@
     <t xml:space="preserve">Test Product 1: 99x500; Test Product 2: 18x1500; Test Product 4: 1x1200; </t>
   </si>
   <si>
-    <t>Test Product 1</t>
+    <t>20240818113448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 22x500; Test Product 4: 200x1200; </t>
+  </si>
+  <si>
+    <t>20240819005651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 1x500; </t>
+  </si>
+  <si>
+    <t>20240818113617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 220x1200; Test Product 2: 2x1500; </t>
+  </si>
+  <si>
+    <t>20240818113636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 2: 8x1500; Test Product 4: 12x1200; </t>
+  </si>
+  <si>
+    <t>NLJ7RT61SV</t>
+  </si>
+  <si>
+    <t>20240818181106</t>
+  </si>
+  <si>
+    <t>254708374149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 30x1200; Test Product 2: 5x1500; </t>
+  </si>
+  <si>
+    <t>MPESA</t>
+  </si>
+  <si>
+    <t>20240818181136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 200x1200; Test Product 2: 3x1500; </t>
   </si>
   <si>
     <t>Test Product 2</t>
   </si>
   <si>
-    <t>Test Product 4</t>
+    <t>20240818180820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 21x500; Test Product 2: 2x1500; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
+    <t>20240818180858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; </t>
+  </si>
+  <si>
+    <t>20240818184247</t>
+  </si>
+  <si>
+    <t>0718750145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>By Admin</t>
   </si>
   <si>
     <t>20240818113507</t>
@@ -113,19 +191,31 @@
     <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
   </si>
   <si>
-    <t>20240818113617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 4: 220x1200; Test Product 2: 2x1500; </t>
-  </si>
-  <si>
-    <t>20240818113636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 2: 8x1500; Test Product 4: 12x1200; </t>
-  </si>
-  <si>
-    <t>Test Product 3</t>
+    <t>20240818113556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 2: 2x1500; </t>
+  </si>
+  <si>
+    <t>20240818181008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; Test Product 3: 3x1200; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>20240818181022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 30x500; </t>
+  </si>
+  <si>
+    <t>20240818184535</t>
+  </si>
+  <si>
+    <t>087878787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
   </si>
 </sst>
 </file>
@@ -501,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>217000</v>
+        <v>468500</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>77500</v>
       </c>
       <c r="D2" s="3">
-        <v>390500</v>
+        <v>391000</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>350000</v>
+        <v>369500</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>84500</v>
       </c>
       <c r="D3" s="3">
         <v>285000</v>
@@ -532,7 +622,7 @@
         <v>293400</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>288000</v>
       </c>
       <c r="D4" s="3">
         <v>5400</v>
@@ -543,13 +633,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>130100</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>130100</v>
       </c>
     </row>
   </sheetData>
@@ -590,39 +680,39 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>139300</v>
@@ -630,22 +720,40 @@
       <c r="D2" s="2">
         <v>45505.125</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="2"/>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45522.88394261814</v>
+      </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>77700</v>
@@ -653,23 +761,92 @@
       <c r="D3" s="2">
         <v>45517.125</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45522.88417353484</v>
+      </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O3" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>251000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45522.125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45522.904791628585</v>
+      </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O4" s="4">
         <v>210</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45516.125</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="2"/>
+      <c r="O5" s="4"/>
     </row>
   </sheetData>
 </worksheet>
@@ -709,39 +886,39 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3">
         <v>350000</v>
@@ -749,11 +926,29 @@
       <c r="D2" s="2">
         <v>45518.125</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="2"/>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45522.88446399367</v>
+      </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" s="4">
         <v>70</v>
@@ -761,10 +956,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3">
         <v>16500</v>
@@ -772,19 +967,70 @@
       <c r="D3" s="2">
         <v>45519.125</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45522.88475460242</v>
+      </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O3" s="4">
         <v>190</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45522.125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45522.9067650663</v>
+      </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
@@ -792,7 +1038,7 @@
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -836,39 +1082,39 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>267000</v>
@@ -876,11 +1122,29 @@
       <c r="D2" s="2">
         <v>45510.125</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="2"/>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45522.88498576506</v>
+      </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O2" s="4">
         <v>2</v>
@@ -888,10 +1152,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>26400</v>
@@ -899,11 +1163,29 @@
       <c r="D3" s="2">
         <v>45514.125</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45522.88516011602</v>
+      </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O3" s="4">
         <v>2</v>
@@ -947,31 +1229,70 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>130100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45523.125</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2"/>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/go-api/book1.xlsx
+++ b/go-api/book1.xlsx
@@ -119,6 +119,24 @@
     <t xml:space="preserve">Test Product 1: 1x500; </t>
   </si>
   <si>
+    <t>20240818113507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 220x500; Test Product 4: 200x1200; </t>
+  </si>
+  <si>
+    <t>20240818113523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
+  </si>
+  <si>
+    <t>20240818113556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 2: 2x1500; </t>
+  </si>
+  <si>
     <t>20240818113617</t>
   </si>
   <si>
@@ -134,88 +152,70 @@
     <t>NLJ7RT61SV</t>
   </si>
   <si>
+    <t>20240818180820</t>
+  </si>
+  <si>
+    <t>254708374149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 21x500; Test Product 2: 2x1500; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
+    <t>MPESA</t>
+  </si>
+  <si>
+    <t>20240818180858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; </t>
+  </si>
+  <si>
+    <t>20240818184247</t>
+  </si>
+  <si>
+    <t>0718750145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>By Admin</t>
+  </si>
+  <si>
+    <t>Test Product 2</t>
+  </si>
+  <si>
+    <t>20240818181008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; Test Product 3: 3x1200; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>20240818181022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 30x500; </t>
+  </si>
+  <si>
+    <t>20240818184535</t>
+  </si>
+  <si>
+    <t>087878787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
     <t>20240818181106</t>
   </si>
   <si>
-    <t>254708374149</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Product 4: 30x1200; Test Product 2: 5x1500; </t>
   </si>
   <si>
-    <t>MPESA</t>
-  </si>
-  <si>
     <t>20240818181136</t>
   </si>
   <si>
     <t xml:space="preserve">Test Product 4: 200x1200; Test Product 2: 3x1500; </t>
-  </si>
-  <si>
-    <t>Test Product 2</t>
-  </si>
-  <si>
-    <t>20240818180820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 21x500; Test Product 2: 2x1500; Test Product 4: 10x1200; </t>
-  </si>
-  <si>
-    <t>20240818180858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 100x500; </t>
-  </si>
-  <si>
-    <t>20240818184247</t>
-  </si>
-  <si>
-    <t>0718750145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
-  </si>
-  <si>
-    <t>By Admin</t>
-  </si>
-  <si>
-    <t>20240818113507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 220x500; Test Product 4: 200x1200; </t>
-  </si>
-  <si>
-    <t>20240818113523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
-  </si>
-  <si>
-    <t>20240818113556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 2: 2x1500; </t>
-  </si>
-  <si>
-    <t>20240818181008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 100x500; Test Product 3: 3x1200; Test Product 2: 1x1500; </t>
-  </si>
-  <si>
-    <t>20240818181022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 30x500; </t>
-  </si>
-  <si>
-    <t>20240818184535</t>
-  </si>
-  <si>
-    <t>087878787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
   </si>
 </sst>
 </file>
@@ -721,13 +721,13 @@
         <v>45505.125</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -736,7 +736,7 @@
         <v>25500</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>45522.88394261814</v>
@@ -762,28 +762,28 @@
         <v>45517.125</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3">
         <v>50000</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2">
         <v>45522.88417353484</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O3" s="4">
         <v>17</v>
@@ -803,22 +803,22 @@
         <v>45522.125</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3">
         <v>2000</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2">
         <v>45522.904791628585</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3">
         <v>350000</v>
@@ -927,22 +927,22 @@
         <v>45518.125</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3">
         <v>55100</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>45522.88446399367</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>16500</v>
@@ -968,22 +968,22 @@
         <v>45519.125</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3">
         <v>15000</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2">
         <v>45522.88475460242</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>3000</v>
@@ -1009,22 +1009,22 @@
         <v>45522.125</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3">
         <v>14400</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2">
         <v>45522.9067650663</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3">
         <v>267000</v>
@@ -1123,22 +1123,22 @@
         <v>45510.125</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3">
         <v>43500</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>45522.88498576506</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
         <v>26400</v>
@@ -1164,28 +1164,28 @@
         <v>45514.125</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J3" s="3">
         <v>244500</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2">
         <v>45522.88516011602</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O3" s="4">
         <v>2</v>

--- a/go-api/book1.xlsx
+++ b/go-api/book1.xlsx
@@ -95,6 +95,24 @@
     <t>Test Product 4</t>
   </si>
   <si>
+    <t>20240818113507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 220x500; Test Product 4: 200x1200; </t>
+  </si>
+  <si>
+    <t>20240818113523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
+  </si>
+  <si>
+    <t>20240818113556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 2: 2x1500; </t>
+  </si>
+  <si>
     <t>20240818113344</t>
   </si>
   <si>
@@ -119,24 +137,6 @@
     <t xml:space="preserve">Test Product 1: 1x500; </t>
   </si>
   <si>
-    <t>20240818113507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 220x500; Test Product 4: 200x1200; </t>
-  </si>
-  <si>
-    <t>20240818113523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
-  </si>
-  <si>
-    <t>20240818113556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 2: 2x1500; </t>
-  </si>
-  <si>
     <t>20240818113617</t>
   </si>
   <si>
@@ -152,18 +152,45 @@
     <t>NLJ7RT61SV</t>
   </si>
   <si>
+    <t>20240818181008</t>
+  </si>
+  <si>
+    <t>254708374149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; Test Product 3: 3x1200; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>MPESA</t>
+  </si>
+  <si>
+    <t>20240818181022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 30x500; </t>
+  </si>
+  <si>
+    <t>20240818184535</t>
+  </si>
+  <si>
+    <t>087878787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
+    <t>By Admin</t>
+  </si>
+  <si>
+    <t>Test Product 2</t>
+  </si>
+  <si>
     <t>20240818180820</t>
   </si>
   <si>
-    <t>254708374149</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Product 1: 21x500; Test Product 2: 2x1500; Test Product 4: 10x1200; </t>
   </si>
   <si>
-    <t>MPESA</t>
-  </si>
-  <si>
     <t>20240818180858</t>
   </si>
   <si>
@@ -177,33 +204,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
-  </si>
-  <si>
-    <t>By Admin</t>
-  </si>
-  <si>
-    <t>Test Product 2</t>
-  </si>
-  <si>
-    <t>20240818181008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 100x500; Test Product 3: 3x1200; Test Product 2: 1x1500; </t>
-  </si>
-  <si>
-    <t>20240818181022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 30x500; </t>
-  </si>
-  <si>
-    <t>20240818184535</t>
-  </si>
-  <si>
-    <t>087878787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
   </si>
   <si>
     <t>20240818181106</t>
@@ -709,10 +709,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3">
         <v>139300</v>
@@ -724,13 +724,13 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J2" s="3">
         <v>25500</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>77700</v>
@@ -765,13 +765,13 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J3" s="3">
         <v>50000</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>251000</v>
@@ -806,13 +806,13 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3">
         <v>2000</v>
@@ -832,10 +832,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>500</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>350000</v>
@@ -930,13 +930,13 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3">
         <v>55100</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>16500</v>
@@ -971,13 +971,13 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3">
         <v>15000</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>3000</v>
@@ -1012,13 +1012,13 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J4" s="3">
         <v>14400</v>
